--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/DF/20/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.686</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.94</v>
+        <v>12.919</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>13.104</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.27</v>
+        <v>12.913</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.422000000000001</v>
+        <v>-8.342000000000002</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,10 +641,10 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.892</v>
+        <v>-8.038</v>
       </c>
       <c r="E12" t="n">
-        <v>12.654</v>
+        <v>13.338</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.494</v>
+        <v>12.911</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-10.67</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.163999999999999</v>
+        <v>-7.897</v>
       </c>
       <c r="E15" t="n">
         <v>14.11</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>13.21</v>
+        <v>12.862</v>
       </c>
     </row>
     <row r="23">
